--- a/data/climate_data_availability/6142_data.xlsx
+++ b/data/climate_data_availability/6142_data.xlsx
@@ -1,24 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20304"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_4DEFDA38A685107C47CEC33745BAFA202A93AB1E" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="23955" windowHeight="11325"/>
+    <workbookView xWindow="480" yWindow="45" windowWidth="23955" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621" iterateDelta="1E-4"/>
+  <calcPr calcId="179016" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="22">
   <si>
     <t>inventory nr</t>
+  </si>
+  <si>
+    <t>name</t>
   </si>
   <si>
     <t>month</t>
@@ -27,16 +31,13 @@
     <t>year</t>
   </si>
   <si>
-    <t>precip</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
     <t>temp_min</t>
   </si>
   <si>
     <t>temp_max</t>
+  </si>
+  <si>
+    <t>precip</t>
   </si>
   <si>
     <t>psychrometry_temp_dry</t>
@@ -57,16 +58,28 @@
     <t>haut bar. Luc</t>
   </si>
   <si>
-    <t>07.00</t>
+    <t>t1</t>
   </si>
   <si>
-    <t>14.00</t>
+    <t>t2</t>
   </si>
   <si>
-    <t>hygrometricite_max</t>
+    <t>t3</t>
   </si>
   <si>
-    <t>hygrometricite_min</t>
+    <t>actino</t>
+  </si>
+  <si>
+    <t>hygro</t>
+  </si>
+  <si>
+    <t>Lat</t>
+  </si>
+  <si>
+    <t>Long</t>
+  </si>
+  <si>
+    <t>Alt</t>
   </si>
   <si>
     <t>Celo-Zongo</t>
@@ -75,8 +88,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,7 +136,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Excel Built-in Explanatory Text" xfId="1"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -131,6 +144,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -179,7 +195,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -212,9 +228,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -247,6 +280,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -422,37 +472,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R127"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:U127"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G120" sqref="G120"/>
+    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+      <pane ySplit="1" topLeftCell="I2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
-      </c>
-      <c r="G1" t="s">
-        <v>3</v>
       </c>
       <c r="H1" t="s">
         <v>7</v>
@@ -484,13 +534,25 @@
       <c r="Q1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
       <c r="A2">
         <v>6142</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C2">
         <v>6</v>
@@ -541,12 +603,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21">
       <c r="A3">
-        <v>6143</v>
+        <v>6142</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C3">
         <v>7</v>
@@ -597,12 +659,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21">
       <c r="A4">
-        <v>6144</v>
+        <v>6142</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C4">
         <v>8</v>
@@ -644,21 +706,21 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
       <c r="R4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
       <c r="A5">
-        <v>6145</v>
+        <v>6142</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C5">
         <v>9</v>
@@ -709,12 +771,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21">
       <c r="A6">
-        <v>6146</v>
+        <v>6142</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C6">
         <v>10</v>
@@ -765,12 +827,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21">
       <c r="A7">
-        <v>6147</v>
+        <v>6142</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C7">
         <v>11</v>
@@ -821,12 +883,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21">
       <c r="A8">
-        <v>6148</v>
+        <v>6142</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C8">
         <v>12</v>
@@ -877,12 +939,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21">
       <c r="A9">
-        <v>6149</v>
+        <v>6142</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -933,12 +995,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21">
       <c r="A10">
-        <v>6150</v>
+        <v>6142</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C10">
         <v>2</v>
@@ -989,12 +1051,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21">
       <c r="A11">
-        <v>6151</v>
+        <v>6142</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C11">
         <v>3</v>
@@ -1045,12 +1107,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21">
       <c r="A12">
-        <v>6152</v>
+        <v>6142</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C12">
         <v>4</v>
@@ -1101,12 +1163,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21">
       <c r="A13">
-        <v>6153</v>
+        <v>6142</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C13">
         <v>5</v>
@@ -1157,12 +1219,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21">
       <c r="A14">
-        <v>6154</v>
+        <v>6142</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C14">
         <v>6</v>
@@ -1213,12 +1275,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21">
       <c r="A15">
-        <v>6155</v>
+        <v>6142</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C15">
         <v>7</v>
@@ -1269,12 +1331,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21">
       <c r="A16">
-        <v>6156</v>
+        <v>6142</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C16">
         <v>8</v>
@@ -1325,12 +1387,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18">
       <c r="A17">
-        <v>6157</v>
+        <v>6142</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C17">
         <v>9</v>
@@ -1381,12 +1443,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18">
       <c r="A18">
-        <v>6158</v>
+        <v>6142</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C18">
         <v>11</v>
@@ -1437,12 +1499,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18">
       <c r="A19">
-        <v>6159</v>
+        <v>6142</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C19">
         <v>12</v>
@@ -1493,12 +1555,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18">
       <c r="A20">
-        <v>6160</v>
+        <v>6142</v>
       </c>
       <c r="B20" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -1549,12 +1611,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18">
       <c r="A21">
-        <v>6161</v>
+        <v>6142</v>
       </c>
       <c r="B21" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C21">
         <v>2</v>
@@ -1605,12 +1667,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18">
       <c r="A22">
-        <v>6162</v>
+        <v>6142</v>
       </c>
       <c r="B22" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C22">
         <v>3</v>
@@ -1661,12 +1723,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18">
       <c r="A23">
-        <v>6163</v>
+        <v>6142</v>
       </c>
       <c r="B23" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C23">
         <v>4</v>
@@ -1717,12 +1779,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18">
       <c r="A24">
-        <v>6164</v>
+        <v>6142</v>
       </c>
       <c r="B24" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C24">
         <v>5</v>
@@ -1773,12 +1835,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18">
       <c r="A25">
-        <v>6165</v>
+        <v>6142</v>
       </c>
       <c r="B25" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C25">
         <v>6</v>
@@ -1829,12 +1891,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18">
       <c r="A26">
-        <v>6166</v>
+        <v>6142</v>
       </c>
       <c r="B26" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C26">
         <v>7</v>
@@ -1885,12 +1947,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18">
       <c r="A27">
-        <v>6167</v>
+        <v>6142</v>
       </c>
       <c r="B27" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C27">
         <v>8</v>
@@ -1941,12 +2003,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18">
       <c r="A28">
-        <v>6168</v>
+        <v>6142</v>
       </c>
       <c r="B28" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C28">
         <v>9</v>
@@ -1997,12 +2059,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18">
       <c r="A29">
-        <v>6169</v>
+        <v>6142</v>
       </c>
       <c r="B29" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C29">
         <v>10</v>
@@ -2053,12 +2115,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18">
       <c r="A30">
-        <v>6170</v>
+        <v>6142</v>
       </c>
       <c r="B30" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C30">
         <v>11</v>
@@ -2109,12 +2171,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18">
       <c r="A31">
-        <v>6171</v>
+        <v>6142</v>
       </c>
       <c r="B31" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C31">
         <v>12</v>
@@ -2165,12 +2227,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18">
       <c r="A32">
-        <v>6172</v>
+        <v>6142</v>
       </c>
       <c r="B32" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -2221,12 +2283,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18">
       <c r="A33">
-        <v>6173</v>
+        <v>6142</v>
       </c>
       <c r="B33" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C33">
         <v>2</v>
@@ -2277,12 +2339,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18">
       <c r="A34">
-        <v>6174</v>
+        <v>6142</v>
       </c>
       <c r="B34" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C34">
         <v>3</v>
@@ -2333,12 +2395,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18">
       <c r="A35">
-        <v>6175</v>
+        <v>6142</v>
       </c>
       <c r="B35" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C35">
         <v>4</v>
@@ -2389,12 +2451,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18">
       <c r="A36">
-        <v>6176</v>
+        <v>6142</v>
       </c>
       <c r="B36" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C36">
         <v>5</v>
@@ -2445,12 +2507,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18">
       <c r="A37">
-        <v>6177</v>
+        <v>6142</v>
       </c>
       <c r="B37" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C37">
         <v>6</v>
@@ -2501,12 +2563,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18">
       <c r="A38">
-        <v>6178</v>
+        <v>6142</v>
       </c>
       <c r="B38" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C38">
         <v>7</v>
@@ -2557,12 +2619,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18">
       <c r="A39">
-        <v>6179</v>
+        <v>6142</v>
       </c>
       <c r="B39" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C39">
         <v>8</v>
@@ -2613,12 +2675,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18">
       <c r="A40">
-        <v>6180</v>
+        <v>6142</v>
       </c>
       <c r="B40" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C40">
         <v>9</v>
@@ -2669,12 +2731,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18">
       <c r="A41">
-        <v>6181</v>
+        <v>6142</v>
       </c>
       <c r="B41" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C41">
         <v>10</v>
@@ -2725,12 +2787,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18">
       <c r="A42">
-        <v>6182</v>
+        <v>6142</v>
       </c>
       <c r="B42" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C42">
         <v>11</v>
@@ -2781,12 +2843,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18">
       <c r="A43">
-        <v>6183</v>
+        <v>6142</v>
       </c>
       <c r="B43" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C43">
         <v>12</v>
@@ -2837,12 +2899,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18">
       <c r="A44">
-        <v>6184</v>
+        <v>6142</v>
       </c>
       <c r="B44" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -2893,12 +2955,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18">
       <c r="A45">
-        <v>6185</v>
+        <v>6142</v>
       </c>
       <c r="B45" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C45">
         <v>2</v>
@@ -2949,12 +3011,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18">
       <c r="A46">
-        <v>6186</v>
+        <v>6142</v>
       </c>
       <c r="B46" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C46">
         <v>3</v>
@@ -3005,12 +3067,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18">
       <c r="A47">
-        <v>6187</v>
+        <v>6142</v>
       </c>
       <c r="B47" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C47">
         <v>4</v>
@@ -3061,12 +3123,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18">
       <c r="A48">
-        <v>6188</v>
+        <v>6142</v>
       </c>
       <c r="B48" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C48">
         <v>5</v>
@@ -3117,12 +3179,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18">
       <c r="A49">
-        <v>6189</v>
+        <v>6142</v>
       </c>
       <c r="B49" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C49">
         <v>6</v>
@@ -3173,12 +3235,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18">
       <c r="A50">
-        <v>6190</v>
+        <v>6142</v>
       </c>
       <c r="B50" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C50">
         <v>7</v>
@@ -3229,12 +3291,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:18">
       <c r="A51">
-        <v>6191</v>
+        <v>6142</v>
       </c>
       <c r="B51" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C51">
         <v>8</v>
@@ -3285,12 +3347,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18">
       <c r="A52">
-        <v>6192</v>
+        <v>6142</v>
       </c>
       <c r="B52" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C52">
         <v>9</v>
@@ -3341,12 +3403,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:18">
       <c r="A53">
-        <v>6193</v>
+        <v>6142</v>
       </c>
       <c r="B53" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C53">
         <v>10</v>
@@ -3397,12 +3459,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:18">
       <c r="A54">
-        <v>6194</v>
+        <v>6142</v>
       </c>
       <c r="B54" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C54">
         <v>11</v>
@@ -3453,12 +3515,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:18">
       <c r="A55">
-        <v>6195</v>
+        <v>6142</v>
       </c>
       <c r="B55" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C55">
         <v>12</v>
@@ -3509,12 +3571,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:18">
       <c r="A56">
-        <v>6196</v>
+        <v>6142</v>
       </c>
       <c r="B56" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -3565,12 +3627,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:18">
       <c r="A57">
-        <v>6197</v>
+        <v>6142</v>
       </c>
       <c r="B57" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C57">
         <v>2</v>
@@ -3621,12 +3683,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:18">
       <c r="A58">
-        <v>6198</v>
+        <v>6142</v>
       </c>
       <c r="B58" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C58">
         <v>3</v>
@@ -3677,12 +3739,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:18">
       <c r="A59">
-        <v>6199</v>
+        <v>6142</v>
       </c>
       <c r="B59" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C59">
         <v>4</v>
@@ -3733,12 +3795,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:18">
       <c r="A60">
-        <v>6200</v>
+        <v>6142</v>
       </c>
       <c r="B60" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C60">
         <v>5</v>
@@ -3789,12 +3851,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:18">
       <c r="A61">
-        <v>6201</v>
+        <v>6142</v>
       </c>
       <c r="B61" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C61">
         <v>6</v>
@@ -3845,12 +3907,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:18">
       <c r="A62">
-        <v>6202</v>
+        <v>6142</v>
       </c>
       <c r="B62" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C62">
         <v>7</v>
@@ -3901,12 +3963,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:18">
       <c r="A63">
-        <v>6203</v>
+        <v>6142</v>
       </c>
       <c r="B63" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C63">
         <v>8</v>
@@ -3957,12 +4019,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:18">
       <c r="A64">
-        <v>6204</v>
+        <v>6142</v>
       </c>
       <c r="B64" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C64">
         <v>9</v>
@@ -4013,12 +4075,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:18">
       <c r="A65">
-        <v>6205</v>
+        <v>6142</v>
       </c>
       <c r="B65" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C65">
         <v>10</v>
@@ -4069,12 +4131,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:18">
       <c r="A66">
-        <v>6206</v>
+        <v>6142</v>
       </c>
       <c r="B66" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C66">
         <v>11</v>
@@ -4125,12 +4187,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:18">
       <c r="A67">
-        <v>6207</v>
+        <v>6142</v>
       </c>
       <c r="B67" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C67">
         <v>12</v>
@@ -4181,12 +4243,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:18">
       <c r="A68">
-        <v>6208</v>
+        <v>6142</v>
       </c>
       <c r="B68" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -4237,12 +4299,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:18">
       <c r="A69">
-        <v>6209</v>
+        <v>6142</v>
       </c>
       <c r="B69" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C69">
         <v>2</v>
@@ -4293,12 +4355,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:18">
       <c r="A70">
-        <v>6210</v>
+        <v>6142</v>
       </c>
       <c r="B70" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C70">
         <v>3</v>
@@ -4349,12 +4411,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:18">
       <c r="A71">
-        <v>6211</v>
+        <v>6142</v>
       </c>
       <c r="B71" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C71">
         <v>4</v>
@@ -4405,12 +4467,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:18">
       <c r="A72">
-        <v>6212</v>
+        <v>6142</v>
       </c>
       <c r="B72" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C72">
         <v>5</v>
@@ -4461,12 +4523,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:18">
       <c r="A73">
-        <v>6213</v>
+        <v>6142</v>
       </c>
       <c r="B73" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C73">
         <v>6</v>
@@ -4517,12 +4579,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:18">
       <c r="A74">
-        <v>6214</v>
+        <v>6142</v>
       </c>
       <c r="B74" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C74">
         <v>7</v>
@@ -4573,12 +4635,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:18">
       <c r="A75">
-        <v>6215</v>
+        <v>6142</v>
       </c>
       <c r="B75" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C75">
         <v>8</v>
@@ -4629,12 +4691,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:18">
       <c r="A76">
-        <v>6216</v>
+        <v>6142</v>
       </c>
       <c r="B76" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C76">
         <v>9</v>
@@ -4685,12 +4747,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:18">
       <c r="A77">
-        <v>6217</v>
+        <v>6142</v>
       </c>
       <c r="B77" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C77">
         <v>10</v>
@@ -4741,12 +4803,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:18">
       <c r="A78">
-        <v>6218</v>
+        <v>6142</v>
       </c>
       <c r="B78" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C78">
         <v>11</v>
@@ -4797,12 +4859,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:18">
       <c r="A79">
-        <v>6219</v>
+        <v>6142</v>
       </c>
       <c r="B79" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C79">
         <v>12</v>
@@ -4853,12 +4915,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:18">
       <c r="A80">
-        <v>6220</v>
+        <v>6142</v>
       </c>
       <c r="B80" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C80">
         <v>1</v>
@@ -4909,12 +4971,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:18">
       <c r="A81">
-        <v>6221</v>
+        <v>6142</v>
       </c>
       <c r="B81" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C81">
         <v>2</v>
@@ -4965,12 +5027,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:18">
       <c r="A82">
-        <v>6222</v>
+        <v>6142</v>
       </c>
       <c r="B82" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C82">
         <v>3</v>
@@ -5021,12 +5083,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:18">
       <c r="A83">
-        <v>6223</v>
+        <v>6142</v>
       </c>
       <c r="B83" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C83">
         <v>4</v>
@@ -5077,12 +5139,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:18">
       <c r="A84">
-        <v>6224</v>
+        <v>6142</v>
       </c>
       <c r="B84" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C84">
         <v>5</v>
@@ -5133,12 +5195,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:18">
       <c r="A85">
-        <v>6225</v>
+        <v>6142</v>
       </c>
       <c r="B85" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C85">
         <v>6</v>
@@ -5189,12 +5251,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:18">
       <c r="A86">
-        <v>6226</v>
+        <v>6142</v>
       </c>
       <c r="B86" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C86">
         <v>7</v>
@@ -5245,12 +5307,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:18">
       <c r="A87">
-        <v>6227</v>
+        <v>6142</v>
       </c>
       <c r="B87" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C87">
         <v>8</v>
@@ -5301,12 +5363,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:18">
       <c r="A88">
-        <v>6228</v>
+        <v>6142</v>
       </c>
       <c r="B88" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C88">
         <v>9</v>
@@ -5357,12 +5419,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:18">
       <c r="A89">
-        <v>6229</v>
+        <v>6142</v>
       </c>
       <c r="B89" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C89">
         <v>10</v>
@@ -5413,12 +5475,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:18">
       <c r="A90">
-        <v>6230</v>
+        <v>6142</v>
       </c>
       <c r="B90" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C90">
         <v>11</v>
@@ -5469,12 +5531,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:18">
       <c r="A91">
-        <v>6231</v>
+        <v>6142</v>
       </c>
       <c r="B91" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C91">
         <v>12</v>
@@ -5525,12 +5587,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:18">
       <c r="A92">
-        <v>6232</v>
+        <v>6142</v>
       </c>
       <c r="B92" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C92">
         <v>1</v>
@@ -5581,12 +5643,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:18">
       <c r="A93">
-        <v>6233</v>
+        <v>6142</v>
       </c>
       <c r="B93" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C93">
         <v>2</v>
@@ -5637,12 +5699,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:18">
       <c r="A94">
-        <v>6234</v>
+        <v>6142</v>
       </c>
       <c r="B94" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C94">
         <v>3</v>
@@ -5693,12 +5755,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:18">
       <c r="A95">
-        <v>6235</v>
+        <v>6142</v>
       </c>
       <c r="B95" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C95">
         <v>4</v>
@@ -5749,12 +5811,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:18">
       <c r="A96">
-        <v>6236</v>
+        <v>6142</v>
       </c>
       <c r="B96" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C96">
         <v>5</v>
@@ -5805,12 +5867,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:18">
       <c r="A97">
-        <v>6237</v>
+        <v>6142</v>
       </c>
       <c r="B97" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C97">
         <v>6</v>
@@ -5861,12 +5923,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:18">
       <c r="A98">
-        <v>6238</v>
+        <v>6142</v>
       </c>
       <c r="B98" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C98">
         <v>7</v>
@@ -5917,12 +5979,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:18">
       <c r="A99">
-        <v>6239</v>
+        <v>6142</v>
       </c>
       <c r="B99" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C99">
         <v>8</v>
@@ -5973,12 +6035,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:18">
       <c r="A100">
-        <v>6240</v>
+        <v>6142</v>
       </c>
       <c r="B100" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C100">
         <v>9</v>
@@ -6029,12 +6091,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:18">
       <c r="A101">
-        <v>6241</v>
+        <v>6142</v>
       </c>
       <c r="B101" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C101">
         <v>10</v>
@@ -6085,12 +6147,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:18">
       <c r="A102">
-        <v>6242</v>
+        <v>6142</v>
       </c>
       <c r="B102" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C102">
         <v>11</v>
@@ -6141,12 +6203,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:18">
       <c r="A103">
-        <v>6243</v>
+        <v>6142</v>
       </c>
       <c r="B103" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C103">
         <v>12</v>
@@ -6197,12 +6259,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:18">
       <c r="A104">
-        <v>6244</v>
+        <v>6142</v>
       </c>
       <c r="B104" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -6253,12 +6315,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:18">
       <c r="A105">
-        <v>6245</v>
+        <v>6142</v>
       </c>
       <c r="B105" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C105">
         <v>2</v>
@@ -6309,12 +6371,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:18">
       <c r="A106">
-        <v>6246</v>
+        <v>6142</v>
       </c>
       <c r="B106" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C106">
         <v>3</v>
@@ -6365,12 +6427,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:18">
       <c r="A107">
-        <v>6247</v>
+        <v>6142</v>
       </c>
       <c r="B107" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C107">
         <v>4</v>
@@ -6421,12 +6483,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:18">
       <c r="A108">
-        <v>6248</v>
+        <v>6142</v>
       </c>
       <c r="B108" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C108">
         <v>5</v>
@@ -6477,12 +6539,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:18">
       <c r="A109">
-        <v>6249</v>
+        <v>6142</v>
       </c>
       <c r="B109" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C109">
         <v>6</v>
@@ -6533,12 +6595,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:18">
       <c r="A110">
-        <v>6250</v>
+        <v>6142</v>
       </c>
       <c r="B110" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C110">
         <v>7</v>
@@ -6589,12 +6651,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:18">
       <c r="A111">
-        <v>6251</v>
+        <v>6142</v>
       </c>
       <c r="B111" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C111">
         <v>8</v>
@@ -6645,12 +6707,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:18">
       <c r="A112">
-        <v>6252</v>
+        <v>6142</v>
       </c>
       <c r="B112" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C112">
         <v>9</v>
@@ -6701,12 +6763,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:18">
       <c r="A113">
-        <v>6253</v>
+        <v>6142</v>
       </c>
       <c r="B113" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C113">
         <v>10</v>
@@ -6757,12 +6819,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:18">
       <c r="A114">
-        <v>6254</v>
+        <v>6142</v>
       </c>
       <c r="B114" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C114">
         <v>11</v>
@@ -6813,12 +6875,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:18">
       <c r="A115">
-        <v>6255</v>
+        <v>6142</v>
       </c>
       <c r="B115" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C115">
         <v>12</v>
@@ -6869,12 +6931,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:18">
       <c r="A116">
-        <v>6256</v>
+        <v>6142</v>
       </c>
       <c r="B116" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C116">
         <v>1</v>
@@ -6925,12 +6987,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:18">
       <c r="A117">
-        <v>6257</v>
+        <v>6142</v>
       </c>
       <c r="B117" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C117">
         <v>2</v>
@@ -6981,12 +7043,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:18">
       <c r="A118">
-        <v>6258</v>
+        <v>6142</v>
       </c>
       <c r="B118" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C118">
         <v>3</v>
@@ -7037,12 +7099,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:18">
       <c r="A119">
-        <v>6259</v>
+        <v>6142</v>
       </c>
       <c r="B119" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C119">
         <v>4</v>
@@ -7093,12 +7155,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:18">
       <c r="A120">
-        <v>6260</v>
+        <v>6142</v>
       </c>
       <c r="B120" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C120">
         <v>5</v>
@@ -7149,12 +7211,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:18">
       <c r="A121">
-        <v>6261</v>
+        <v>6142</v>
       </c>
       <c r="B121" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C121">
         <v>6</v>
@@ -7205,12 +7267,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:18">
       <c r="A122">
-        <v>6262</v>
+        <v>6142</v>
       </c>
       <c r="B122" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C122">
         <v>7</v>
@@ -7261,12 +7323,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:18">
       <c r="A123">
-        <v>6263</v>
+        <v>6142</v>
       </c>
       <c r="B123" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C123">
         <v>8</v>
@@ -7317,12 +7379,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:18">
       <c r="A124">
-        <v>6264</v>
+        <v>6142</v>
       </c>
       <c r="B124" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C124">
         <v>9</v>
@@ -7373,12 +7435,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:18">
       <c r="A125">
-        <v>6265</v>
+        <v>6142</v>
       </c>
       <c r="B125" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C125">
         <v>10</v>
@@ -7429,12 +7491,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:18">
       <c r="A126">
-        <v>6266</v>
+        <v>6142</v>
       </c>
       <c r="B126" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C126">
         <v>11</v>
@@ -7485,12 +7547,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:18">
       <c r="A127">
-        <v>6267</v>
+        <v>6142</v>
       </c>
       <c r="B127" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C127">
         <v>12</v>
@@ -7547,24 +7609,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" xr3:uid="{958C4451-9541-5A59-BF78-D2F731DF1C81}"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" xr3:uid="{842E5F09-E766-5B8D-85AF-A39847EA96FD}"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
